--- a/sam-merante/src/assets/lotto.xlsx
+++ b/sam-merante/src/assets/lotto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SMER/eclipse-workspace/LottoPredictor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SMER/code/smerante.github.io/sam-merante/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC1D8E6-BC89-044C-8BE6-0B8304A94ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F877096-5C49-4244-A375-746CAC598F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5704,7 +5704,7 @@
   <dimension ref="A1:D579"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5734,6 +5734,9 @@
       </c>
       <c r="C2" t="s">
         <v>1724</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
